--- a/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_queren2\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="5060" windowWidth="23040" windowHeight="8780"/>
+    <workbookView xWindow="3480" yWindow="5055" windowWidth="23040" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>资产类型</t>
   </si>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>PSDCD_带出理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,7 +278,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,33 +616,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="9" width="9.25" customWidth="1"/>
-    <col min="15" max="15" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="19" width="16.5" customWidth="1"/>
-    <col min="20" max="20" width="15.25" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
-    <col min="23" max="23" width="16.25" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="18" max="18" width="15.375" customWidth="1"/>
+    <col min="19" max="20" width="16.5" customWidth="1"/>
+    <col min="21" max="21" width="15.25" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="14.375" customWidth="1"/>
+    <col min="24" max="24" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,45 +674,48 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -769,9 +776,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -791,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
@@ -811,7 +818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -828,7 +835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -845,7 +852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -859,7 +866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -870,7 +877,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="C8" t="s">
         <v>18</v>
       </c>
@@ -878,7 +885,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -886,7 +893,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -894,7 +901,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="C11" t="s">
         <v>21</v>
       </c>
@@ -902,7 +909,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -910,7 +917,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -918,7 +925,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="C14" t="s">
         <v>24</v>
       </c>
@@ -926,7 +933,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -934,7 +941,7 @@
         <v>100004</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -942,7 +949,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>27</v>
       </c>
@@ -950,7 +957,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
         <v>28</v>
       </c>
@@ -958,7 +965,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>29</v>
       </c>
@@ -966,7 +973,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20" t="s">
         <v>30</v>
       </c>

--- a/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C817B8E0-E047-4845-A575-4AC77183B6DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="5055" windowWidth="23040" windowHeight="8775"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>资产类型</t>
   </si>
@@ -212,13 +213,25 @@
   <si>
     <t>存放地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外借</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归还</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,8 +291,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -615,14 +628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
@@ -642,7 +655,7 @@
     <col min="24" max="24" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,39 +739,39 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$3:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C$3:$C$20</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$D$3:$D$20</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Sheet1!$E$3:$E$6</xm:f>
+            <xm:f>Sheet1!$E$3:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Sheet1!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>H2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
-            <xm:f>Sheet1!$G$3:$G$4</xm:f>
+            <xm:f>Sheet1!$G$3:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
@@ -769,16 +782,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -798,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
@@ -806,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>140000</v>
+        <v>140001</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -818,7 +831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -826,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>150000</v>
+        <v>150001</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -834,8 +847,11 @@
       <c r="F4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -843,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>210000</v>
+        <v>210001</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -851,8 +867,11 @@
       <c r="F5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -860,13 +879,13 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>180000</v>
+        <v>180001</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -874,66 +893,69 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>160001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>240001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>130001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>190001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -941,44 +963,44 @@
         <v>100004</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+        <v>220001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>250000</v>
+        <v>250001</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C817B8E0-E047-4845-A575-4AC77183B6DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="5055" windowWidth="23040" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>资产类型</t>
   </si>
@@ -213,25 +212,13 @@
   <si>
     <t>存放地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外借</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>归还</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,8 +278,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -628,14 +615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
@@ -655,7 +642,7 @@
     <col min="24" max="24" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -739,39 +726,39 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$3:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$C$3:$C$20</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$D$3:$D$20</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$E$3:$E$7</xm:f>
+            <xm:f>Sheet1!$E$3:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>H2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$G$3:$G$5</xm:f>
+            <xm:f>Sheet1!$G$3:$G$4</xm:f>
           </x14:formula1>
           <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
@@ -782,16 +769,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -811,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
@@ -819,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>140001</v>
+        <v>140000</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -831,7 +818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -839,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>150001</v>
+        <v>150000</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -847,11 +834,8 @@
       <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -859,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>210001</v>
+        <v>210000</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -867,11 +851,8 @@
       <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -879,13 +860,13 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>180001</v>
+        <v>180000</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -893,69 +874,66 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>160001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>240001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9">
-        <v>130001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>230001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>120001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>170001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13">
-        <v>200001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14">
-        <v>190001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -963,44 +941,44 @@
         <v>100004</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7">
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16">
-        <v>260001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17">
-        <v>220001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19">
-        <v>110001</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>250001</v>
+        <v>250000</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANSCS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DD30F0-65AD-4431-B799-DA2F72313EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="5055" windowWidth="23040" windowHeight="8775"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>资产类型</t>
   </si>
@@ -211,14 +212,26 @@
   </si>
   <si>
     <t>存放地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归还</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +261,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,16 +291,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -615,14 +638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
@@ -642,7 +665,7 @@
     <col min="24" max="24" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,39 +749,39 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$3:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C$3:$C$20</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$D$3:$D$20</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Sheet1!$E$3:$E$6</xm:f>
+            <xm:f>Sheet1!$E$3:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Sheet1!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>H2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
-            <xm:f>Sheet1!$G$3:$G$4</xm:f>
+            <xm:f>Sheet1!$G$3:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
@@ -769,16 +792,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -798,15 +821,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>140000</v>
+      <c r="D3" s="3">
+        <v>140001</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -814,19 +837,19 @@
       <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>150000</v>
+      <c r="D4" s="3">
+        <v>150001</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -834,16 +857,19 @@
       <c r="F4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="G4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>210000</v>
+      <c r="D5" s="3">
+        <v>210001</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -851,134 +877,140 @@
       <c r="F5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="G5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
-        <v>180000</v>
+      <c r="D6" s="3">
+        <v>180001</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="C8" t="s">
+      <c r="D7" s="3">
+        <v>160001</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="C9" t="s">
+      <c r="D8" s="3">
+        <v>240001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="C10" t="s">
+      <c r="D9" s="3">
+        <v>130001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="C11" t="s">
+      <c r="D10" s="3">
+        <v>230001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12" t="s">
+      <c r="D11" s="3">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="C13" t="s">
+      <c r="D12" s="3">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="C14" t="s">
+      <c r="D13" s="3">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="C15" t="s">
+      <c r="D14" s="3">
+        <v>190001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>100004</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="C16" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
+      <c r="D16" s="3">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
+      <c r="D17" s="3">
+        <v>220001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
+      <c r="D18" s="3">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
+      <c r="D19" s="3">
+        <v>110001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20">
-        <v>250000</v>
+      <c r="D20" s="3">
+        <v>250001</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_001\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C817B8E0-E047-4845-A575-4AC77183B6DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15276"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>资产类型</t>
   </si>
@@ -63,61 +62,6 @@
   <si>
     <t>部门代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APD</t>
-  </si>
-  <si>
-    <t>ALD</t>
-  </si>
-  <si>
-    <t>APO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IED</t>
-  </si>
-  <si>
-    <t>CTA</t>
-  </si>
-  <si>
-    <t>LSD</t>
-  </si>
-  <si>
-    <t>ECD</t>
-  </si>
-  <si>
-    <t>DTD</t>
-  </si>
-  <si>
-    <t>OSD</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>ISD</t>
-  </si>
-  <si>
-    <t>NBPO</t>
-  </si>
-  <si>
-    <t>BSEO</t>
-  </si>
-  <si>
-    <t>SDEO</t>
-  </si>
-  <si>
-    <t>ADMN</t>
-  </si>
-  <si>
-    <t>FPO</t>
-  </si>
-  <si>
-    <t>DANP</t>
   </si>
   <si>
     <t>固定资产</t>
@@ -224,13 +168,93 @@
   </si>
   <si>
     <t>归还</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDG-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDG-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSDG-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSDG-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDG-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDG-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDG-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDG-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDG-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDEO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBPO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -292,7 +316,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -628,39 +652,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="9" width="9.25" customWidth="1"/>
-    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1"/>
-    <col min="18" max="18" width="15.375" customWidth="1"/>
+    <col min="8" max="9" width="9.19921875" customWidth="1"/>
+    <col min="16" max="16" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.19921875" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" customWidth="1"/>
     <col min="19" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="15.25" customWidth="1"/>
+    <col min="21" max="21" width="15.19921875" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="14.375" customWidth="1"/>
-    <col min="24" max="24" width="16.25" customWidth="1"/>
+    <col min="23" max="23" width="14.3984375" customWidth="1"/>
+    <col min="24" max="24" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -672,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -687,13 +711,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>5</v>
@@ -702,34 +726,34 @@
         <v>6</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -739,37 +763,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$3:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$C$3:$C$20</xm:f>
+            <xm:f>Sheet1!$C$3:$C$22</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$D$3:$D$20</xm:f>
+            <xm:f>Sheet1!$D$3:$D$13</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$E$3:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>H2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$G$3:$G$5</xm:f>
           </x14:formula1>
@@ -782,16 +806,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -811,196 +835,185 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D3">
+        <v>100001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>110001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>130001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
         <v>140001</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>150001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>210001</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>180001</v>
-      </c>
       <c r="E6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>160001</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>180001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>190001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>250001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>260001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>240001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>130001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>230001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>120001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>170001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>200001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>190001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>100004</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>260001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>220001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>110001</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>250001</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_001\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\01_local\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15276"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>资产类型</t>
   </si>
@@ -171,91 +171,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ASDG-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPDG-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPDG-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSDG-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSDG-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDG-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDG-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDG-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSDG-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSDG-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HAPO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDC1</t>
+  </si>
+  <si>
+    <t>ASDC2</t>
+  </si>
+  <si>
+    <t>ASDC3</t>
+  </si>
+  <si>
+    <t>SPDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSDC</t>
+  </si>
+  <si>
+    <t>ISDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDC</t>
   </si>
   <si>
     <t>FAPO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DPPO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SDEO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NBPO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECDO</t>
+  </si>
+  <si>
+    <t>OMPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +249,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,19 +273,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -656,30 +630,30 @@
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="9" width="9.19921875" customWidth="1"/>
-    <col min="16" max="16" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.19921875" customWidth="1"/>
-    <col min="18" max="18" width="15.3984375" customWidth="1"/>
+    <col min="8" max="9" width="9.25" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="18" max="18" width="15.375" customWidth="1"/>
     <col min="19" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="15.19921875" customWidth="1"/>
+    <col min="21" max="21" width="15.25" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="14.3984375" customWidth="1"/>
-    <col min="24" max="24" width="16.19921875" customWidth="1"/>
+    <col min="23" max="23" width="14.375" customWidth="1"/>
+    <col min="24" max="24" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,15 +781,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -835,14 +809,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>100001</v>
       </c>
       <c r="E3" t="s">
@@ -855,14 +829,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>110001</v>
       </c>
       <c r="E4" t="s">
@@ -875,14 +849,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>130001</v>
       </c>
       <c r="E5" t="s">
@@ -895,126 +869,100 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>140001</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>160001</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="2:7">
+      <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>170001</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="2:7">
+      <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>180001</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="2:7">
+      <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>190001</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="2:7">
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>200001</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="2:7">
+      <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
+        <v>220001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4">
         <v>250001</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="2:7">
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4">
         <v>260001</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="2:7">
+      <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="2:7">
+      <c r="C16" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/wuxingzichan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\01_local\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.I7HNJ62BKRDWMSV\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31333577-4478-444F-AD1D-7191E0DAFFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270"/>
+    <workbookView xWindow="1095" yWindow="1575" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>资产类型</t>
   </si>
@@ -112,9 +113,6 @@
   </si>
   <si>
     <t>名称</t>
-  </si>
-  <si>
-    <t>管理者</t>
   </si>
   <si>
     <t>启用日期</t>
@@ -213,13 +211,21 @@
   </si>
   <si>
     <t>OMPC</t>
+  </si>
+  <si>
+    <t>管理者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者Megas编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +259,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,7 +286,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,11 +294,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -626,34 +635,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="9" width="9.25" customWidth="1"/>
-    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1"/>
-    <col min="18" max="18" width="15.375" customWidth="1"/>
-    <col min="19" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="15.25" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="14.375" customWidth="1"/>
-    <col min="24" max="24" width="16.25" customWidth="1"/>
+    <col min="5" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="10" width="9.25" customWidth="1"/>
+    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.25" customWidth="1"/>
+    <col min="19" max="19" width="15.375" customWidth="1"/>
+    <col min="20" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="15.25" customWidth="1"/>
+    <col min="23" max="23" width="15" customWidth="1"/>
+    <col min="24" max="24" width="14.375" customWidth="1"/>
+    <col min="25" max="25" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,108 +679,114 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{657319EC-6EC0-4E0F-94FC-68E4B640420B}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$3:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C$3:$C$22</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$D$3:$D$13</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet1!$E$3:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>G2</xm:sqref>
+          <xm:sqref>H2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Sheet1!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2</xm:sqref>
+          <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Sheet1!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
+          <xm:sqref>J2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -780,16 +795,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -809,12 +824,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4">
         <v>100001</v>
@@ -829,12 +844,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4">
         <v>110001</v>
@@ -846,15 +861,15 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4">
         <v>130001</v>
@@ -866,15 +881,15 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4">
         <v>140001</v>
@@ -883,84 +898,84 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4">
         <v>160001</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4">
         <v>170001</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4">
         <v>180001</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4">
         <v>190001</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4">
         <v>200001</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4">
         <v>220001</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4">
         <v>250001</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4">
         <v>260001</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="4" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="C16" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D16" s="4"/>
     </row>
